--- a/メモ.xlsx
+++ b/メモ.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\16GB\dev\231107-HTML_CSS_LP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F5EF3F-2FDA-4953-B88F-FEB1EA58DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB04C3-BEEA-4EF1-BFCF-0F2961510151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +25,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>CSSリセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rel="noopener noreferrer" </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Google検索結果表示と、&lt;title&gt;、&lt;meta name="description"　の関係 </t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +66,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -62,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -109,7 +149,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="264318" y="1590676"/>
+          <a:off x="264318" y="1674020"/>
           <a:ext cx="7475502" cy="1943032"/>
           <a:chOff x="3467100" y="1388269"/>
           <a:chExt cx="7475502" cy="1943032"/>
@@ -270,6 +310,464 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>229889</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>126348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9C003E-9668-1710-42C8-05337F992F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666751" y="5060156"/>
+          <a:ext cx="9231013" cy="1019317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>607219</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>226219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA9F92A-FD54-488A-8504-6E78E5BAB919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2678907" y="6179344"/>
+          <a:ext cx="9298780" cy="1119187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>rel="noopener noreferrer" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リンク先からリンク元</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>こちら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を分からなくできる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>→リンク先が悪意サイトの場合、記述していないと攻撃対象にできてしまう</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379271</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>54870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A57307-1AF4-66AF-6D64-E3BDB87F01D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="535781" y="8381999"/>
+          <a:ext cx="4677428" cy="733527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23715</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4564B7A3-35A1-22CB-25F1-C5ABADC8D017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="333375"/>
+          <a:ext cx="11568015" cy="24279224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79945CD8-A598-5881-AFA4-8B64B8DF8AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="304800"/>
+          <a:ext cx="11563350" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67D7457-5C71-5E1D-53E3-1A1254B8E529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13258801" y="381000"/>
+          <a:ext cx="933450" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>&lt;HEADER&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6059C75A-A651-9585-D60C-BB5571AAF59C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="685799"/>
+          <a:ext cx="1790700" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -538,10 +1036,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="6" spans="2:2" ht="25.5">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="25.5">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="25.5">
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1488AD4-17B4-4A44-975C-F927DE888C11}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/メモ.xlsx
+++ b/メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\16GB\dev\231107-HTML_CSS_LP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB04C3-BEEA-4EF1-BFCF-0F2961510151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B4B191-32C4-46C8-9A77-F4E7FFF93788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CSSリセット</t>
     <phoneticPr fontId="1"/>
@@ -49,6 +49,10 @@
     <rPh sb="48" eb="50">
       <t>カンケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>headerタグ CSS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -525,6 +529,609 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>255673</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>138464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF6CF18-6CC0-4327-E9C0-0FA9519CA814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2917030" y="9634539"/>
+          <a:ext cx="6315956" cy="2505425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>560384</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19331</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="グループ化 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6559B4F0-A637-D8B6-AFD4-F93DE9CBC16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="250032" y="12382371"/>
+          <a:ext cx="16193290" cy="2495960"/>
+          <a:chOff x="250032" y="12382371"/>
+          <a:chExt cx="16193290" cy="2495960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="31" name="グループ化 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146E622F-BF2C-85B9-A81B-4C774AE387A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="250032" y="12382371"/>
+            <a:ext cx="15993131" cy="2495960"/>
+            <a:chOff x="321469" y="12275215"/>
+            <a:chExt cx="15993131" cy="2495960"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="25" name="グループ化 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F9A330-FB41-7FB6-3466-A2A94CB9367F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="321469" y="12275215"/>
+              <a:ext cx="12774808" cy="2495960"/>
+              <a:chOff x="642938" y="10620247"/>
+              <a:chExt cx="12774808" cy="2495960"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="7" name="図 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54514859-5A90-75CA-8205-CE3A0C8920D4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="642938" y="11096625"/>
+                <a:ext cx="12774808" cy="2019582"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="11" name="図 10">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A503E4D-F3E7-3FCC-9439-F51F567208C3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4917281" y="10713983"/>
+                <a:ext cx="4167189" cy="249319"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AAD183-EF45-5CC5-6A1B-E68A088B1C24}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="2416969" y="10620247"/>
+                <a:ext cx="9191625" cy="33205"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="16" name="図 15">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74211161-85FB-B73D-267A-5849D3EAE041}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11287126" y="12001500"/>
+                <a:ext cx="1295581" cy="200053"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="17" name="図 16">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110FBE4E-D051-35A0-7908-C9DD10C60040}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1488282" y="11989594"/>
+                <a:ext cx="1295581" cy="200053"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="19" name="正方形/長方形 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF39AE4-7BD6-8A89-ED08-A8C9AF0EB2AC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2428875" y="11084719"/>
+                <a:ext cx="9167812" cy="1583531"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="テキスト ボックス 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF9A537-EE84-51B6-4EEA-AC67F9F20714}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10322719" y="11287128"/>
+                <a:ext cx="750655" cy="374141"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>&lt;nav&gt;</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="23" name="テキスト ボックス 22">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86999A54-4AB0-3FB6-9320-4E9548C4BAC0}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3821907" y="11287128"/>
+                <a:ext cx="652871" cy="374141"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>&lt;h1&gt;</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="24" name="図 23">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8C8E59-62A4-A203-86EB-444C5DBE219B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4572000" y="11608593"/>
+                <a:ext cx="5830114" cy="924054"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDAAADC-B864-4AD2-A34E-4ECFF4F97CB2}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="11060906" y="11836963"/>
+                <a:ext cx="500062" cy="9756"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1CA9B4-5B04-CF4A-A23F-FADC584BFC87}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2405062" y="11836963"/>
+                <a:ext cx="500062" cy="9756"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:headEnd type="triangle"/>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="図 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E5B8EA-1A3A-80EC-86C1-06B20DC91FE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11608593" y="12942095"/>
+              <a:ext cx="4706007" cy="447737"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="33" name="図 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA15FD7-FD72-1998-2538-8CCAE24EA0DF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10775156" y="13751719"/>
+            <a:ext cx="5668166" cy="228632"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1036,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:B34"/>
+  <dimension ref="B6:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1057,6 +1664,11 @@
     <row r="34" spans="2:2" ht="25.5">
       <c r="B34" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="25.5">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
